--- a/solution_2.xlsx
+++ b/solution_2.xlsx
@@ -681,25 +681,25 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -708,37 +708,37 @@
         <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>10</v>
@@ -772,10 +772,10 @@
         <v>11</v>
       </c>
       <c r="AI3" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ3" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>8</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>8</v>
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="AI4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -918,37 +918,37 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>9</v>
@@ -960,19 +960,19 @@
         <v>9</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>8</v>
@@ -984,38 +984,38 @@
         <v>9</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1">
         <v>11</v>
       </c>
       <c r="AI5" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -1077,55 +1077,55 @@
         <v>8</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1">
@@ -1135,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="AM6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="1">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>10</v>
@@ -1203,31 +1203,31 @@
         <v>8</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>10</v>
@@ -1242,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1">
@@ -1278,28 +1278,28 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>10</v>
@@ -1326,10 +1326,10 @@
         <v>8</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>8</v>
@@ -1338,19 +1338,19 @@
         <v>9</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>9</v>
@@ -1362,20 +1362,20 @@
         <v>10</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1">
         <v>11</v>
       </c>
       <c r="AI8" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AJ8" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1395,28 +1395,28 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>10</v>
@@ -1425,43 +1425,43 @@
         <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>8</v>
@@ -1470,19 +1470,19 @@
         <v>9</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>10</v>
@@ -1492,10 +1492,10 @@
         <v>11</v>
       </c>
       <c r="AI9" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ9" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -1515,31 +1515,31 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
@@ -1548,74 +1548,74 @@
         <v>9</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1">
         <v>11</v>
       </c>
       <c r="AI10" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ10" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="1">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -1683,13 +1683,13 @@
         <v>2</v>
       </c>
       <c r="Q12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" s="1">
         <v>2</v>
       </c>
       <c r="S12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T12" s="2">
         <v>3</v>
@@ -1698,16 +1698,16 @@
         <v>2</v>
       </c>
       <c r="V12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
       </c>
       <c r="X12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="2">
         <v>2</v>
@@ -1719,16 +1719,16 @@
         <v>2</v>
       </c>
       <c r="AC12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="1">
         <v>2</v>
       </c>
       <c r="AE12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1736,16 +1736,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" s="2">
         <v>2</v>
@@ -1799,31 +1799,31 @@
         <v>2</v>
       </c>
       <c r="W13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X13" s="2">
         <v>2</v>
       </c>
       <c r="Y13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="2">
         <v>2</v>
       </c>
       <c r="AA13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="1">
         <v>2</v>
       </c>
       <c r="AC13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="1">
         <v>3</v>

--- a/solution_2.xlsx
+++ b/solution_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>정형섭</t>
-  </si>
-  <si>
-    <t>남영선</t>
   </si>
   <si>
     <t>양혜경</t>
@@ -441,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +517,7 @@
       <c r="W1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>23</v>
       </c>
       <c r="Y1" s="2">
@@ -532,7 +529,7 @@
       <c r="AA1" s="2">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="2">
         <v>27</v>
       </c>
       <c r="AC1" s="1">
@@ -618,7 +615,7 @@
       <c r="W2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="2" t="s">
@@ -630,7 +627,7 @@
       <c r="AA2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AC2" s="1" t="s">
@@ -696,13 +693,13 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
@@ -711,36 +708,36 @@
         <v>10</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y3" s="2" t="s">
@@ -752,14 +749,14 @@
       <c r="AA3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>10</v>
@@ -772,10 +769,10 @@
         <v>11</v>
       </c>
       <c r="AI3" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ3" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -831,10 +828,10 @@
         <v>9</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>8</v>
@@ -860,7 +857,7 @@
       <c r="W4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y4" s="2" t="s">
@@ -872,7 +869,7 @@
       <c r="AA4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AC4" s="1" t="s">
@@ -921,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -930,16 +927,16 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>10</v>
@@ -969,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>8</v>
@@ -980,7 +977,7 @@
       <c r="W5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y5" s="2" t="s">
@@ -992,11 +989,11 @@
       <c r="AA5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>8</v>
@@ -1005,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1">
@@ -1035,76 +1032,76 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="W6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>9</v>
+      <c r="X6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>10</v>
@@ -1112,36 +1109,36 @@
       <c r="AA6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1">
         <v>11</v>
       </c>
       <c r="AI6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>1</v>
@@ -1155,22 +1152,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -1179,49 +1176,49 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>10</v>
+      <c r="X7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>10</v>
@@ -1230,32 +1227,32 @@
         <v>8</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1">
         <v>11</v>
       </c>
       <c r="AI7" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ7" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1264,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN7" s="1">
         <v>0</v>
@@ -1275,13 +1272,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1296,83 +1293,83 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1">
         <v>11</v>
       </c>
       <c r="AI8" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ8" s="1">
         <v>6</v>
@@ -1384,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1395,10 +1392,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1407,10 +1404,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
@@ -1419,37 +1416,37 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>8</v>
@@ -1460,42 +1457,42 @@
       <c r="W9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>10</v>
+      <c r="X9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1">
         <v>11</v>
       </c>
       <c r="AI9" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -1504,151 +1501,129 @@
         <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>9</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
@@ -1692,22 +1667,22 @@
         <v>2</v>
       </c>
       <c r="T12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U12" s="1">
         <v>2</v>
       </c>
       <c r="V12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
       </c>
-      <c r="X12" s="2">
-        <v>3</v>
+      <c r="X12" s="1">
+        <v>2</v>
       </c>
       <c r="Y12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="2">
         <v>2</v>
@@ -1715,118 +1690,20 @@
       <c r="AA12" s="2">
         <v>2</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="2">
         <v>2</v>
       </c>
       <c r="AC12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD12" s="1">
         <v>2</v>
       </c>
       <c r="AE12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2</v>
-      </c>
-      <c r="R13" s="1">
-        <v>2</v>
-      </c>
-      <c r="S13" s="2">
-        <v>3</v>
-      </c>
-      <c r="T13" s="2">
-        <v>2</v>
-      </c>
-      <c r="U13" s="1">
-        <v>3</v>
-      </c>
-      <c r="V13" s="1">
-        <v>2</v>
-      </c>
-      <c r="W13" s="1">
-        <v>2</v>
-      </c>
-      <c r="X13" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/solution_2.xlsx
+++ b/solution_2.xlsx
@@ -86,10 +86,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,12 +143,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,19 +750,19 @@
       <c r="W3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="2" t="s">
+      <c r="X3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AC3" s="1" t="s">
@@ -791,7 +804,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -806,19 +819,19 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -866,16 +879,16 @@
       <c r="Z4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AA4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -944,7 +957,7 @@
       <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -959,10 +972,10 @@
       <c r="Q5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -980,16 +993,16 @@
       <c r="X5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="2" t="s">
+      <c r="Y5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AC5" s="1" t="s">
@@ -1031,7 +1044,7 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1070,7 +1083,7 @@
       <c r="N6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1091,7 +1104,7 @@
       <c r="U6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="W6" s="1" t="s">
@@ -1106,10 +1119,10 @@
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AA6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AC6" s="1" t="s">
@@ -1181,25 +1194,25 @@
       <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="O7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="2" t="s">
@@ -1298,13 +1311,13 @@
       <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -1322,7 +1335,7 @@
       <c r="R8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="T8" s="2" t="s">
@@ -1352,10 +1365,10 @@
       <c r="AB8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AC8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -1391,13 +1404,13 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1424,19 +1437,19 @@
       <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R9" s="1" t="s">

--- a/solution_2.xlsx
+++ b/solution_2.xlsx
@@ -691,22 +691,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>8</v>
@@ -769,10 +769,10 @@
         <v>9</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>10</v>
@@ -862,10 +862,10 @@
         <v>9</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>10</v>
@@ -892,10 +892,10 @@
         <v>8</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1">
@@ -928,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -940,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -979,16 +979,16 @@
         <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>9</v>
@@ -1006,16 +1006,16 @@
         <v>8</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1">
@@ -1048,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1060,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>10</v>
@@ -1111,10 +1111,10 @@
         <v>8</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>10</v>
@@ -1129,10 +1129,10 @@
         <v>10</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>8</v>
@@ -1165,28 +1165,28 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
@@ -1216,25 +1216,25 @@
         <v>8</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>8</v>
@@ -1246,26 +1246,26 @@
         <v>9</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1">
         <v>11</v>
       </c>
       <c r="AI7" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -1297,19 +1297,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>14</v>
@@ -1345,10 +1345,10 @@
         <v>9</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>10</v>
@@ -1372,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1">
@@ -1408,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -1417,19 +1417,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
@@ -1462,16 +1462,16 @@
         <v>10</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>10</v>
@@ -1489,23 +1489,23 @@
         <v>8</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1">
         <v>11</v>
       </c>
       <c r="AI9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -1582,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="T11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" s="1">
         <v>2</v>
@@ -1615,10 +1615,10 @@
         <v>2</v>
       </c>
       <c r="AE11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1626,97 +1626,97 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="1">
         <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2">
-        <v>2</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>2</v>
-      </c>
-      <c r="S12" s="2">
-        <v>2</v>
-      </c>
-      <c r="T12" s="2">
-        <v>2</v>
-      </c>
-      <c r="U12" s="1">
-        <v>2</v>
-      </c>
-      <c r="V12" s="1">
-        <v>2</v>
-      </c>
-      <c r="W12" s="1">
-        <v>2</v>
-      </c>
-      <c r="X12" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
